--- a/biology/Zoologie/Chromodoris_lochi/Chromodoris_lochi.xlsx
+++ b/biology/Zoologie/Chromodoris_lochi/Chromodoris_lochi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chromodoris lochi
 Chromodoris lochi est une espèce de nudibranche de la famille des Chromodorididae. 
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans la zone centrale de la région Indo-Pacifique[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans la zone centrale de la région Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat est la zone récifale externe, sur les sommets ou sur les pentes jusqu'à la zone des 30 m de profondeur.
 </t>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce peut mesurer plus de 4 cm[3]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce peut mesurer plus de 4 cm. 
 Le pied est étiré et quasiment recouvert par les bords du large manteau, il est de teinte bleue superficiellement moucheté de micro-points blancs avec une bande noire.
 La livrée du manteau est de couleur bleue comme le pied ; l'intensité du bleu varie d'un individu à l'autre pouvant aller du bleu-ciel dilué au bleu électrique.
 Une ligne noire quasi-continue parcourt la face dorsale contournant les rhinophores et les branchies, le centre du manteau est également traversé par une ligne noire qui n'est pas nécessairement continue. Il peut exister selon les individus d'autres traits noirs répartis sur le manteau.
@@ -611,7 +629,9 @@
           <t>Éthologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce Chromodoris est benthique et diurne, se déplace à vue sans crainte d'être pris pour une proie, grâce à la présence de glandes défensives réparties dans les tissus de son corps.
 </t>
@@ -642,9 +662,11 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chromodoris lochi se nourrit principalement, d'après les observations actuelles, d'éponges[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chromodoris lochi se nourrit principalement, d'après les observations actuelles, d'éponges.
 </t>
         </is>
       </c>
